--- a/Profiles_Extended_CleanedPasswords.xlsx
+++ b/Profiles_Extended_CleanedPasswords.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="2013">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -4375,7 +4375,10 @@
     <t>Training tell able serious property in word image over past order attack.</t>
   </si>
   <si>
-    <t>lisa.english843@gmail.com</t>
+    <t>lisa.english8434@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003li</t>
   </si>
   <si>
     <t>@lisa_english59</t>
@@ -4396,7 +4399,7 @@
     <t>kelly.stark110@gmail.com</t>
   </si>
   <si>
-    <t>!@t4SdpQgw</t>
+    <t>02082003ke</t>
   </si>
   <si>
     <t>@kelly_stark87</t>
@@ -4417,10 +4420,10 @@
     <t>kristin.patterson999@gmail.com</t>
   </si>
   <si>
-    <t>!7TyL2zP@l</t>
-  </si>
-  <si>
-    <t>@kristin_patterson87</t>
+    <t>02082003kr</t>
+  </si>
+  <si>
+    <t>@kristin_pat87</t>
   </si>
   <si>
     <t>@kristinpatterson302</t>
@@ -4435,10 +4438,10 @@
     <t>Their story cut identify campaign amount wear.</t>
   </si>
   <si>
-    <t>jamie.smith134@gmail.com</t>
-  </si>
-  <si>
-    <t>0pLQ3rlI@p</t>
+    <t>jamie.smith1343@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003ja</t>
   </si>
   <si>
     <t>@jamie_smith87</t>
@@ -4462,7 +4465,7 @@
     <t>angela.bullock720@gmail.com</t>
   </si>
   <si>
-    <t>IMxD@awz!0</t>
+    <t>02082003an</t>
   </si>
   <si>
     <t>@angela_bullock32</t>
@@ -4480,7 +4483,7 @@
     <t>russell.garcia224@gmail.com</t>
   </si>
   <si>
-    <t>bD0GKjM7!8</t>
+    <t>02082003ru</t>
   </si>
   <si>
     <t>@russell_garcia74</t>
@@ -4498,10 +4501,7 @@
     <t>Necessary soon partner crime business consider member fish road.</t>
   </si>
   <si>
-    <t>john.lee247@gmail.com</t>
-  </si>
-  <si>
-    <t>@7o!WobNz5</t>
+    <t>john.lee24777@gmail.com</t>
   </si>
   <si>
     <t>@john_lee48</t>
@@ -4519,10 +4519,7 @@
     <t>Beautiful baby ground charge third present figure Congress quickly doctor west.</t>
   </si>
   <si>
-    <t>amy.baird498@gmail.com</t>
-  </si>
-  <si>
-    <t>!fK@g!@g!5</t>
+    <t>amy.baird46@gmail.com</t>
   </si>
   <si>
     <t>@amy_baird67</t>
@@ -4537,10 +4534,10 @@
     <t>Religious force site dinner since food.</t>
   </si>
   <si>
-    <t>michael.sullivan999@gmail.com</t>
-  </si>
-  <si>
-    <t>Vn!8@1Ii!!</t>
+    <t>michael.sullivan99999@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003mi</t>
   </si>
   <si>
     <t>@michael_sullivan72</t>
@@ -4555,10 +4552,7 @@
     <t>Level own bank small important certain minute thought face measure mean.</t>
   </si>
   <si>
-    <t>amy.garcia380@gmail.com</t>
-  </si>
-  <si>
-    <t>Nw@9EOvi!0</t>
+    <t>amy.garcia3803@gmail.com</t>
   </si>
   <si>
     <t>@amy_garcia67</t>
@@ -4573,16 +4567,16 @@
     <t>Final fill range court hold if.</t>
   </si>
   <si>
-    <t>william.thomas817@gmail.com</t>
-  </si>
-  <si>
-    <t>63yEQkTy@2</t>
+    <t>william.thomas8178@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003wi</t>
   </si>
   <si>
     <t>@william_thomas70</t>
   </si>
   <si>
-    <t>@williamthomas215</t>
+    <t>@williamthomp70</t>
   </si>
   <si>
     <t>Corey</t>
@@ -4600,7 +4594,7 @@
     <t>corey.wheeler935@gmail.com</t>
   </si>
   <si>
-    <t>E@89Q3iCpy</t>
+    <t>02082003co</t>
   </si>
   <si>
     <t>@corey_wheeler80</t>
@@ -4618,10 +4612,10 @@
     <t>Source interest I one nor nature special evening she.</t>
   </si>
   <si>
-    <t>stephen.thompson947@gmail.com</t>
-  </si>
-  <si>
-    <t>i3sNQYfi@u</t>
+    <t>stephen.thompson9479@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003st</t>
   </si>
   <si>
     <t>@stephen_thompson59</t>
@@ -4645,13 +4639,13 @@
     <t>bradley.burton878@gmail.com</t>
   </si>
   <si>
-    <t>!Hwu27Rk3!</t>
+    <t>02082003br</t>
   </si>
   <si>
     <t>@bradley_burton50</t>
   </si>
   <si>
-    <t>@bradleyburton421</t>
+    <t>@bradleyburton42</t>
   </si>
   <si>
     <t>Port Natalie, Bulgaria</t>
@@ -4879,7 +4873,7 @@
     <t>diane.martin511@gmail.com</t>
   </si>
   <si>
-    <t>!oW@Vbms0y</t>
+    <t>02082003da</t>
   </si>
   <si>
     <t>@diane_martin56</t>
@@ -4900,9 +4894,6 @@
     <t>anna.holland761@gmail.com</t>
   </si>
   <si>
-    <t>iJ!yX9WoM!</t>
-  </si>
-  <si>
     <t>@anna_holland28</t>
   </si>
   <si>
@@ -4924,9 +4915,6 @@
     <t>christy.miles117@gmail.com</t>
   </si>
   <si>
-    <t>psP9kHoa@F</t>
-  </si>
-  <si>
     <t>@christy_miles30</t>
   </si>
   <si>
@@ -4945,9 +4933,6 @@
     <t>tamara.barnes422@gmail.com</t>
   </si>
   <si>
-    <t>me@3S7@e@@</t>
-  </si>
-  <si>
     <t>@tamara_barnes20</t>
   </si>
   <si>
@@ -4963,9 +4948,6 @@
     <t>daniel.peterson413@gmail.com</t>
   </si>
   <si>
-    <t>Zi5YT!lcS@</t>
-  </si>
-  <si>
     <t>@daniel_peterson33</t>
   </si>
   <si>
@@ -4984,9 +4966,6 @@
     <t>michael.chung474@gmail.com</t>
   </si>
   <si>
-    <t>@7WU!Hat@7</t>
-  </si>
-  <si>
     <t>@michael_chung66</t>
   </si>
   <si>
@@ -5005,9 +4984,6 @@
     <t>jennifer.hubbard366@gmail.com</t>
   </si>
   <si>
-    <t>!!X4m@BA98</t>
-  </si>
-  <si>
     <t>@jennifer_hubbard19</t>
   </si>
   <si>
@@ -5023,9 +4999,6 @@
     <t>nathaniel.walker276@gmail.com</t>
   </si>
   <si>
-    <t>7w5OZ@ia!@</t>
-  </si>
-  <si>
     <t>@nathaniel_walker66</t>
   </si>
   <si>
@@ -5044,9 +5017,6 @@
     <t>grace.watkins960@gmail.com</t>
   </si>
   <si>
-    <t>frK9yrA!@7</t>
-  </si>
-  <si>
     <t>@grace_watkins17</t>
   </si>
   <si>
@@ -5068,9 +5038,6 @@
     <t>darin.fowler793@gmail.com</t>
   </si>
   <si>
-    <t>R2KZROGn!4</t>
-  </si>
-  <si>
     <t>@darin_fowler66</t>
   </si>
   <si>
@@ -5089,9 +5056,6 @@
     <t>richard.lopez521@gmail.com</t>
   </si>
   <si>
-    <t>hy4!Q2Dt@S</t>
-  </si>
-  <si>
     <t>@richard_lopez35</t>
   </si>
   <si>
@@ -5113,9 +5077,6 @@
     <t>jeffrey.zamora361@gmail.com</t>
   </si>
   <si>
-    <t>@3FgDrQj6@</t>
-  </si>
-  <si>
     <t>@jeffrey_zamora80</t>
   </si>
   <si>
@@ -5137,7 +5098,7 @@
     <t>dennis.padilla458@gmail.com</t>
   </si>
   <si>
-    <t>1Y@i49Nz!4</t>
+    <t>02082003de</t>
   </si>
   <si>
     <t>@dennis_padilla58</t>
@@ -5155,10 +5116,10 @@
     <t>Might himself heavy investment win environmental important story leg control ago national imagine.</t>
   </si>
   <si>
-    <t>makayla.johnson717@gmail.com</t>
-  </si>
-  <si>
-    <t>@Y3WLF@mcN</t>
+    <t>makayla.johnson7177@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003ma</t>
   </si>
   <si>
     <t>@makayla_johnson78</t>
@@ -5176,10 +5137,10 @@
     <t>Page everybody box sign surface field hear open measure really.</t>
   </si>
   <si>
-    <t>jonathan.clark652@gmail.com</t>
-  </si>
-  <si>
-    <t>W56HnaYm@q</t>
+    <t>jonathan.clark6526@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003jo</t>
   </si>
   <si>
     <t>@jonathan_clark37</t>
@@ -5200,7 +5161,7 @@
     <t>peter.price293@gmail.com</t>
   </si>
   <si>
-    <t>e@55Wu!sm6</t>
+    <t>02082003pe</t>
   </si>
   <si>
     <t>@peter_price94</t>
@@ -5221,9 +5182,6 @@
     <t>jennifer.powers113@gmail.com</t>
   </si>
   <si>
-    <t>X!3ZoJW1R@</t>
-  </si>
-  <si>
     <t>@jennifer_powers74</t>
   </si>
   <si>
@@ -5245,7 +5203,7 @@
     <t>wanda.rios339@gmail.com</t>
   </si>
   <si>
-    <t>!h@8yfET8s</t>
+    <t>02082003wa</t>
   </si>
   <si>
     <t>@wanda_rios52</t>
@@ -5263,7 +5221,7 @@
     <t>caleb.charles743@gmail.com</t>
   </si>
   <si>
-    <t>@jDD!epM4s</t>
+    <t>02082003ca</t>
   </si>
   <si>
     <t>@caleb_charles89</t>
@@ -5287,7 +5245,7 @@
     <t>shelby.blanchard756@gmail.com</t>
   </si>
   <si>
-    <t>9@IyoBEt!t</t>
+    <t>02082003sh</t>
   </si>
   <si>
     <t>@shelby_blanchard86</t>
@@ -5311,9 +5269,6 @@
     <t>marilyn.stein386@gmail.com</t>
   </si>
   <si>
-    <t>bH!j2T@cVT</t>
-  </si>
-  <si>
     <t>@marilyn_stein77</t>
   </si>
   <si>
@@ -5329,10 +5284,10 @@
     <t>Order indicate entire seem media green increase score support prepare lose group success.</t>
   </si>
   <si>
-    <t>julia.wu922@gmail.com</t>
-  </si>
-  <si>
-    <t>7@2A1Av!r@</t>
+    <t>julia.wu9229@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003ju</t>
   </si>
   <si>
     <t>@julia_wu97</t>
@@ -5347,10 +5302,10 @@
     <t>Receive level clear wear consumer relationship last pass customer statement mention black.</t>
   </si>
   <si>
-    <t>curtis.martin114@gmail.com</t>
-  </si>
-  <si>
-    <t>!aT0IF6Mn@</t>
+    <t>curtis.martin1144@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003cu</t>
   </si>
   <si>
     <t>@curtis_martin39</t>
@@ -5368,10 +5323,7 @@
     <t>Administration according brother simple dream fish yard key kind door million woman network.</t>
   </si>
   <si>
-    <t>jennifer.bowers374@gmail.com</t>
-  </si>
-  <si>
-    <t>@29OaWtr@X</t>
+    <t>jennifer.bowers786@gmail.com</t>
   </si>
   <si>
     <t>@jennifer_bowers23</t>
@@ -5392,10 +5344,7 @@
     <t>Bad any forward tonight affect decide into in.</t>
   </si>
   <si>
-    <t>christina.burgess242@gmail.com</t>
-  </si>
-  <si>
-    <t>!CEAH@aWd5</t>
+    <t>christina.burgess243@gmail.com</t>
   </si>
   <si>
     <t>@christina_burgess54</t>
@@ -5413,10 +5362,7 @@
     <t>In can each across already thing share himself trade tell get expect.</t>
   </si>
   <si>
-    <t>brian.walker421@gmail.com</t>
-  </si>
-  <si>
-    <t>!1KJCkv!@x</t>
+    <t>brian.walker4214@gmail.com</t>
   </si>
   <si>
     <t>@brian_walker12</t>
@@ -5434,10 +5380,10 @@
     <t>Newspaper board size trouble space commercial ability wall language house within street.</t>
   </si>
   <si>
-    <t>paul.robinson617@gmail.com</t>
-  </si>
-  <si>
-    <t>k!vCXHJd!1</t>
+    <t>paul.robinson6176@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003pa</t>
   </si>
   <si>
     <t>@paul_robinson10</t>
@@ -5452,10 +5398,7 @@
     <t>School price in speak remember huge fish might detail difficult act.</t>
   </si>
   <si>
-    <t>mark.taylor744@gmail.com</t>
-  </si>
-  <si>
-    <t>CHvKx0!xy!</t>
+    <t>mark.taylor74475@gmail.com</t>
   </si>
   <si>
     <t>@mark_taylor47</t>
@@ -5476,9 +5419,6 @@
     <t>lisa.werner574@gmail.com</t>
   </si>
   <si>
-    <t>b!Vx8SRG!b</t>
-  </si>
-  <si>
     <t>@lisa_werner12</t>
   </si>
   <si>
@@ -5497,7 +5437,7 @@
     <t>jillian.williams875@gmail.com</t>
   </si>
   <si>
-    <t>@Yz@UWtmc9</t>
+    <t>02082003ji</t>
   </si>
   <si>
     <t>@jillian_williams54</t>
@@ -5515,10 +5455,10 @@
     <t>Check boy visit time prevent per soldier scientist all tree.</t>
   </si>
   <si>
-    <t>nicole.smith572@gmail.com</t>
-  </si>
-  <si>
-    <t>o0ggZNgd!@</t>
+    <t>nicole.smith57257@gmail.com</t>
+  </si>
+  <si>
+    <t>02082003ni</t>
   </si>
   <si>
     <t>@nicole_smith30</t>
@@ -5539,9 +5479,6 @@
     <t>heather.wilson3189@gmail.com</t>
   </si>
   <si>
-    <t>02082003da</t>
-  </si>
-  <si>
     <t>@heather_wilson91</t>
   </si>
   <si>
@@ -5647,6 +5584,9 @@
     <t>jerry.contreras246@gmail.com</t>
   </si>
   <si>
+    <t>fixed</t>
+  </si>
+  <si>
     <t>@jerry_contreras63</t>
   </si>
   <si>
@@ -5755,9 +5695,6 @@
     <t>michellehart847@gmail.com</t>
   </si>
   <si>
-    <t>02082003br</t>
-  </si>
-  <si>
     <t>@michelle_hart51</t>
   </si>
   <si>
@@ -5788,7 +5725,7 @@
     <t>Concern keep unit black record debate your test house.</t>
   </si>
   <si>
-    <t>benjamin.johnson294@gmail.com</t>
+    <t>benjamin.johnson9476@gmail.com</t>
   </si>
   <si>
     <t>@benjamin_johnson19</t>
@@ -5824,10 +5761,7 @@
     <t>Move fear matter work friend through kitchen reduce born summer others or sort.</t>
   </si>
   <si>
-    <t>matthew.owens498@gmail.com</t>
-  </si>
-  <si>
-    <t>02082003ma</t>
+    <t>matthew.owens567@gmail.com</t>
   </si>
   <si>
     <t>@matthew_owens50</t>
@@ -5848,9 +5782,6 @@
     <t>james.marshall3501@gmail.com</t>
   </si>
   <si>
-    <t>02082003ja</t>
-  </si>
-  <si>
     <t>@james_marshall72</t>
   </si>
   <si>
@@ -5885,9 +5816,6 @@
   </si>
   <si>
     <t>linda.thomas9070@gmail.com</t>
-  </si>
-  <si>
-    <t>02082003li</t>
   </si>
   <si>
     <t>@linda_thomas44</t>
@@ -15678,8 +15606,11 @@
       <c r="K272" s="2" t="s">
         <v>1441</v>
       </c>
+      <c r="L272" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M272" s="4" t="s">
-        <v>1385</v>
+        <v>1288</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>1442</v>
@@ -15713,6 +15644,9 @@
       <c r="K273" s="2" t="s">
         <v>1447</v>
       </c>
+      <c r="L273" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M273" s="4" t="s">
         <v>1385</v>
       </c>
@@ -15745,17 +15679,20 @@
       <c r="J274" s="5">
         <v>26903.0</v>
       </c>
-      <c r="K274" s="2" t="s">
+      <c r="K274" s="4" t="s">
         <v>1454</v>
       </c>
+      <c r="L274" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M274" s="4" t="s">
-        <v>1385</v>
+        <v>1455</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -15766,13 +15703,13 @@
         <v>911</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I275" s="2">
         <v>51.0</v>
@@ -15781,16 +15718,19 @@
         <v>29103.0</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M275" s="2" t="s">
         <v>1461</v>
       </c>
+      <c r="L275" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M275" s="4" t="s">
+        <v>1462</v>
+      </c>
       <c r="N275" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="P275" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
@@ -15798,16 +15738,16 @@
         <v>218.0</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>985</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I276" s="2">
         <v>42.0</v>
@@ -15816,16 +15756,19 @@
         <v>27312.0</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M276" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="N276" s="2" t="s">
+      <c r="L276" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M276" s="4" t="s">
         <v>1469</v>
       </c>
+      <c r="N276" s="4" t="s">
+        <v>1470</v>
+      </c>
       <c r="P276" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -15833,16 +15776,16 @@
         <v>219.0</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>459</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="I277" s="2">
         <v>47.0</v>
@@ -15850,17 +15793,20 @@
       <c r="J277" s="5">
         <v>32003.0</v>
       </c>
-      <c r="K277" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="K277" s="4" t="s">
         <v>1475</v>
       </c>
+      <c r="L277" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M277" s="4" t="s">
+        <v>1476</v>
+      </c>
       <c r="N277" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
@@ -15868,16 +15814,16 @@
         <v>220.0</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I278" s="2">
         <v>41.0</v>
@@ -15886,16 +15832,19 @@
         <v>37165.0</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="M278" s="2" t="s">
         <v>1483</v>
       </c>
+      <c r="L278" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M278" s="4" t="s">
+        <v>1484</v>
+      </c>
       <c r="N278" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="P278" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
@@ -15909,10 +15858,10 @@
         <v>567</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="I279" s="2">
         <v>26.0</v>
@@ -15921,16 +15870,19 @@
         <v>37464.0</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M279" s="2" t="s">
         <v>1489</v>
       </c>
+      <c r="L279" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M279" s="4" t="s">
+        <v>1490</v>
+      </c>
       <c r="N279" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="P279" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
@@ -15938,16 +15890,16 @@
         <v>222.0</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>606</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I280" s="2">
         <v>34.0</v>
@@ -15955,11 +15907,14 @@
       <c r="J280" s="5">
         <v>24934.0</v>
       </c>
-      <c r="K280" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="M280" s="2" t="s">
+      <c r="K280" s="4" t="s">
         <v>1496</v>
+      </c>
+      <c r="L280" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M280" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="N280" s="2" t="s">
         <v>1497</v>
@@ -15990,17 +15945,20 @@
       <c r="J281" s="5">
         <v>27583.0</v>
       </c>
-      <c r="K281" s="2" t="s">
+      <c r="K281" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="M281" s="2" t="s">
+      <c r="L281" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M281" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="N281" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="N281" s="2" t="s">
+      <c r="P281" s="2" t="s">
         <v>1504</v>
-      </c>
-      <c r="P281" s="2" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
@@ -16014,10 +15972,10 @@
         <v>1119</v>
       </c>
       <c r="G282" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H282" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>1507</v>
       </c>
       <c r="I282" s="2">
         <v>47.0</v>
@@ -16025,17 +15983,20 @@
       <c r="J282" s="5">
         <v>28033.0</v>
       </c>
-      <c r="K282" s="2" t="s">
+      <c r="K282" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L282" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M282" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="M282" s="2" t="s">
+      <c r="N282" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="N282" s="2" t="s">
+      <c r="P282" s="2" t="s">
         <v>1510</v>
-      </c>
-      <c r="P282" s="2" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
@@ -16049,10 +16010,10 @@
         <v>567</v>
       </c>
       <c r="G283" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H283" s="2" t="s">
         <v>1512</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>1513</v>
       </c>
       <c r="I283" s="2">
         <v>46.0</v>
@@ -16060,17 +16021,20 @@
       <c r="J283" s="5">
         <v>23613.0</v>
       </c>
-      <c r="K283" s="2" t="s">
+      <c r="K283" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L283" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M283" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="N283" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="M283" s="2" t="s">
+      <c r="P283" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="N283" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="P283" s="2" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
@@ -16084,10 +16048,10 @@
         <v>269</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="I284" s="2">
         <v>18.0</v>
@@ -16095,17 +16059,20 @@
       <c r="J284" s="5">
         <v>37761.0</v>
       </c>
-      <c r="K284" s="2" t="s">
+      <c r="K284" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L284" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M284" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N284" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="M284" s="2" t="s">
+      <c r="P284" s="4" t="s">
         <v>1521</v>
-      </c>
-      <c r="N284" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="P284" s="2" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
@@ -16113,16 +16080,16 @@
         <v>227.0</v>
       </c>
       <c r="D285" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="H285" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>1527</v>
       </c>
       <c r="I285" s="2">
         <v>22.0</v>
@@ -16131,16 +16098,19 @@
         <v>23884.0</v>
       </c>
       <c r="K285" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L285" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M285" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N285" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="M285" s="2" t="s">
+      <c r="P285" s="2" t="s">
         <v>1529</v>
-      </c>
-      <c r="N285" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="P285" s="2" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
@@ -16148,16 +16118,16 @@
         <v>228.0</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I286" s="2">
         <v>25.0</v>
@@ -16165,17 +16135,20 @@
       <c r="J286" s="5">
         <v>31322.0</v>
       </c>
-      <c r="K286" s="2" t="s">
+      <c r="K286" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L286" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M286" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N286" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="M286" s="2" t="s">
+      <c r="P286" s="2" t="s">
         <v>1536</v>
-      </c>
-      <c r="N286" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="P286" s="2" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
@@ -16183,16 +16156,16 @@
         <v>229.0</v>
       </c>
       <c r="D287" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="H287" s="2" t="s">
         <v>1540</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>1542</v>
       </c>
       <c r="I287" s="2">
         <v>23.0</v>
@@ -16201,16 +16174,19 @@
         <v>33907.0</v>
       </c>
       <c r="K287" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="L287" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M287" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N287" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="M287" s="2" t="s">
+      <c r="P287" s="4" t="s">
         <v>1544</v>
-      </c>
-      <c r="N287" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="P287" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -16224,10 +16200,10 @@
         <v>459</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I288" s="2">
         <v>59.0</v>
@@ -16236,16 +16212,16 @@
         <v>38070.0</v>
       </c>
       <c r="K288" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N288" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="M288" s="2" t="s">
+      <c r="P288" s="2" t="s">
         <v>1550</v>
-      </c>
-      <c r="N288" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="P288" s="2" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
@@ -16256,13 +16232,13 @@
         <v>729</v>
       </c>
       <c r="E289" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H289" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H289" s="2" t="s">
-        <v>1555</v>
       </c>
       <c r="I289" s="2">
         <v>18.0</v>
@@ -16271,16 +16247,16 @@
         <v>31203.0</v>
       </c>
       <c r="K289" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N289" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="M289" s="2" t="s">
+      <c r="P289" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="N289" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="P289" s="2" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
@@ -16288,16 +16264,16 @@
         <v>232.0</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>480</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="I290" s="2">
         <v>54.0</v>
@@ -16306,16 +16282,16 @@
         <v>35667.0</v>
       </c>
       <c r="K290" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M290" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N290" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="M290" s="2" t="s">
+      <c r="P290" s="2" t="s">
         <v>1564</v>
-      </c>
-      <c r="N290" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="P290" s="2" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
@@ -16323,16 +16299,16 @@
         <v>233.0</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>447</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="I291" s="2">
         <v>26.0</v>
@@ -16341,16 +16317,16 @@
         <v>26587.0</v>
       </c>
       <c r="K291" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N291" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="M291" s="2" t="s">
+      <c r="P291" s="2" t="s">
         <v>1571</v>
-      </c>
-      <c r="N291" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="P291" s="2" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
@@ -16361,13 +16337,13 @@
         <v>156</v>
       </c>
       <c r="E292" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H292" s="2" t="s">
         <v>1574</v>
-      </c>
-      <c r="G292" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="H292" s="2" t="s">
-        <v>1576</v>
       </c>
       <c r="I292" s="2">
         <v>37.0</v>
@@ -16376,16 +16352,16 @@
         <v>37458.0</v>
       </c>
       <c r="K292" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M292" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N292" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="M292" s="2" t="s">
+      <c r="P292" s="2" t="s">
         <v>1578</v>
-      </c>
-      <c r="N292" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="P292" s="2" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
@@ -16396,13 +16372,13 @@
         <v>911</v>
       </c>
       <c r="E293" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H293" s="2" t="s">
         <v>1581</v>
-      </c>
-      <c r="G293" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H293" s="2" t="s">
-        <v>1583</v>
       </c>
       <c r="I293" s="2">
         <v>18.0</v>
@@ -16411,16 +16387,16 @@
         <v>26825.0</v>
       </c>
       <c r="K293" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N293" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="M293" s="2" t="s">
+      <c r="P293" s="2" t="s">
         <v>1585</v>
-      </c>
-      <c r="N293" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P293" s="2" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
@@ -16428,16 +16404,16 @@
         <v>236.0</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>497</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="I294" s="2">
         <v>55.0</v>
@@ -16446,16 +16422,16 @@
         <v>26442.0</v>
       </c>
       <c r="K294" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N294" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="M294" s="2" t="s">
+      <c r="P294" s="2" t="s">
         <v>1592</v>
-      </c>
-      <c r="N294" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="P294" s="2" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
@@ -16463,16 +16439,16 @@
         <v>237.0</v>
       </c>
       <c r="D295" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="H295" s="2" t="s">
         <v>1596</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>1598</v>
       </c>
       <c r="I295" s="2">
         <v>28.0</v>
@@ -16481,16 +16457,16 @@
         <v>34121.0</v>
       </c>
       <c r="K295" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N295" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="M295" s="2" t="s">
+      <c r="P295" s="2" t="s">
         <v>1600</v>
-      </c>
-      <c r="N295" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="P295" s="2" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
@@ -16498,16 +16474,16 @@
         <v>238.0</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>996</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="I296" s="2">
         <v>57.0</v>
@@ -16516,16 +16492,16 @@
         <v>34876.0</v>
       </c>
       <c r="K296" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N296" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="M296" s="2" t="s">
+      <c r="P296" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="N296" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="P296" s="2" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
@@ -16533,16 +16509,16 @@
         <v>239.0</v>
       </c>
       <c r="D297" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="H297" s="2" t="s">
         <v>1611</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>1613</v>
       </c>
       <c r="I297" s="2">
         <v>59.0</v>
@@ -16551,16 +16527,16 @@
         <v>25138.0</v>
       </c>
       <c r="K297" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M297" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="N297" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="M297" s="2" t="s">
+      <c r="P297" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="N297" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="P297" s="2" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
@@ -16568,16 +16544,16 @@
         <v>240.0</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="I298" s="2">
         <v>35.0</v>
@@ -16586,16 +16562,16 @@
         <v>37354.0</v>
       </c>
       <c r="K298" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="M298" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N298" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="M298" s="2" t="s">
+      <c r="P298" s="2" t="s">
         <v>1622</v>
-      </c>
-      <c r="N298" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="P298" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
@@ -16603,16 +16579,16 @@
         <v>241.0</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="I299" s="2">
         <v>55.0</v>
@@ -16621,16 +16597,16 @@
         <v>24013.0</v>
       </c>
       <c r="K299" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="M299" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P299" s="2" t="s">
         <v>1628</v>
-      </c>
-      <c r="M299" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="N299" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="P299" s="2" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
@@ -16638,16 +16614,16 @@
         <v>242.0</v>
       </c>
       <c r="D300" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H300" s="2" t="s">
         <v>1632</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>1635</v>
       </c>
       <c r="I300" s="2">
         <v>18.0</v>
@@ -16656,16 +16632,16 @@
         <v>33798.0</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="M300" s="2" t="s">
-        <v>1637</v>
+        <v>1633</v>
+      </c>
+      <c r="M300" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="P300" s="2" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
@@ -16673,16 +16649,16 @@
         <v>243.0</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>938</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="I301" s="2">
         <v>25.0</v>
@@ -16691,16 +16667,16 @@
         <v>29105.0</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="M301" s="2" t="s">
-        <v>1644</v>
+        <v>1639</v>
+      </c>
+      <c r="M301" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="P301" s="2" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
@@ -16714,10 +16690,10 @@
         <v>126</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="I302" s="2">
         <v>45.0</v>
@@ -16726,16 +16702,16 @@
         <v>24330.0</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M302" s="2" t="s">
-        <v>1650</v>
+        <v>1644</v>
+      </c>
+      <c r="M302" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="P302" s="2" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
@@ -16746,13 +16722,13 @@
         <v>686</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I303" s="2">
         <v>39.0</v>
@@ -16761,16 +16737,16 @@
         <v>31467.0</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="M303" s="2" t="s">
-        <v>1657</v>
+        <v>1650</v>
+      </c>
+      <c r="M303" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="P303" s="2" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
@@ -16781,13 +16757,13 @@
         <v>1312</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="I304" s="2">
         <v>40.0</v>
@@ -16796,16 +16772,16 @@
         <v>36689.0</v>
       </c>
       <c r="K304" s="2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="M304" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
+      </c>
+      <c r="M304" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
@@ -16819,10 +16795,10 @@
         <v>312</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="I305" s="2">
         <v>48.0</v>
@@ -16831,16 +16807,16 @@
         <v>38713.0</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="M305" s="2" t="s">
-        <v>1670</v>
+        <v>1661</v>
+      </c>
+      <c r="M305" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
@@ -16851,13 +16827,13 @@
         <v>149</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="I306" s="2">
         <v>33.0</v>
@@ -16866,16 +16842,16 @@
         <v>25345.0</v>
       </c>
       <c r="K306" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="M306" s="2" t="s">
-        <v>1677</v>
+        <v>1667</v>
+      </c>
+      <c r="M306" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
@@ -16883,16 +16859,16 @@
         <v>249.0</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="I307" s="2">
         <v>43.0</v>
@@ -16901,16 +16877,16 @@
         <v>26000.0</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M307" s="2" t="s">
-        <v>1685</v>
+        <v>1674</v>
+      </c>
+      <c r="M307" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="P307" s="2" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
@@ -16918,16 +16894,16 @@
         <v>250.0</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="I308" s="2">
         <v>53.0</v>
@@ -16936,16 +16912,16 @@
         <v>28651.0</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="M308" s="2" t="s">
-        <v>1692</v>
+        <v>1680</v>
+      </c>
+      <c r="M308" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="P308" s="2" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
@@ -16953,16 +16929,16 @@
         <v>251.0</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="I309" s="2">
         <v>20.0</v>
@@ -16971,16 +16947,16 @@
         <v>26189.0</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="M309" s="2" t="s">
-        <v>1700</v>
+        <v>1687</v>
+      </c>
+      <c r="M309" s="4" t="s">
+        <v>1620</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="P309" s="2" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
@@ -16988,16 +16964,16 @@
         <v>252.0</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="I310" s="2">
         <v>22.0</v>
@@ -17006,16 +16982,19 @@
         <v>38245.0</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="M310" s="2" t="s">
-        <v>1708</v>
+        <v>1694</v>
+      </c>
+      <c r="L310" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M310" s="4" t="s">
+        <v>1695</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="P310" s="2" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
@@ -17023,16 +17002,16 @@
         <v>253.0</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>485</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="I311" s="2">
         <v>41.0</v>
@@ -17040,17 +17019,20 @@
       <c r="J311" s="5">
         <v>28519.0</v>
       </c>
-      <c r="K311" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="M311" s="2" t="s">
-        <v>1715</v>
+      <c r="K311" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L311" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M311" s="4" t="s">
+        <v>1702</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -17058,16 +17040,16 @@
         <v>254.0</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="I312" s="2">
         <v>35.0</v>
@@ -17075,17 +17057,20 @@
       <c r="J312" s="5">
         <v>38710.0</v>
       </c>
-      <c r="K312" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="M312" s="2" t="s">
-        <v>1722</v>
+      <c r="K312" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="L312" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M312" s="4" t="s">
+        <v>1709</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="P312" s="2" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -17093,16 +17078,16 @@
         <v>255.0</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>923</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="I313" s="2">
         <v>60.0</v>
@@ -17111,16 +17096,19 @@
         <v>25626.0</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="M313" s="2" t="s">
-        <v>1729</v>
+        <v>1715</v>
+      </c>
+      <c r="L313" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M313" s="4" t="s">
+        <v>1716</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="P313" s="2" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
@@ -17131,13 +17119,13 @@
         <v>1312</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="I314" s="2">
         <v>56.0</v>
@@ -17146,16 +17134,19 @@
         <v>35788.0</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="M314" s="2" t="s">
-        <v>1736</v>
+        <v>1722</v>
+      </c>
+      <c r="L314" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M314" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="P314" s="2" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
@@ -17163,16 +17154,16 @@
         <v>257.0</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1740</v>
+        <v>1726</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="I315" s="2">
         <v>38.0</v>
@@ -17181,16 +17172,19 @@
         <v>30970.0</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="M315" s="2" t="s">
-        <v>1744</v>
+        <v>1729</v>
+      </c>
+      <c r="L315" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M315" s="4" t="s">
+        <v>1730</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="P315" s="2" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
@@ -17204,10 +17198,10 @@
         <v>916</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="I316" s="2">
         <v>38.0</v>
@@ -17216,16 +17210,19 @@
         <v>37932.0</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="M316" s="2" t="s">
-        <v>1750</v>
+        <v>1735</v>
+      </c>
+      <c r="L316" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M316" s="4" t="s">
+        <v>1736</v>
       </c>
       <c r="N316" s="2" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="P316" s="2" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
@@ -17233,16 +17230,16 @@
         <v>259.0</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>1755</v>
+        <v>1741</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="I317" s="2">
         <v>30.0</v>
@@ -17251,16 +17248,19 @@
         <v>26557.0</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="M317" s="2" t="s">
-        <v>1758</v>
+        <v>1743</v>
+      </c>
+      <c r="L317" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M317" s="4" t="s">
+        <v>1744</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>1759</v>
+        <v>1745</v>
       </c>
       <c r="P317" s="2" t="s">
-        <v>1760</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
@@ -17268,16 +17268,16 @@
         <v>260.0</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1761</v>
+        <v>1747</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>1763</v>
+        <v>1749</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="I318" s="2">
         <v>55.0</v>
@@ -17286,16 +17286,19 @@
         <v>37599.0</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="M318" s="2" t="s">
-        <v>1766</v>
+        <v>1751</v>
+      </c>
+      <c r="L318" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M318" s="4" t="s">
+        <v>1702</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="P318" s="2" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
@@ -17306,13 +17309,13 @@
         <v>345</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="I319" s="2">
         <v>57.0</v>
@@ -17320,17 +17323,20 @@
       <c r="J319" s="5">
         <v>32680.0</v>
       </c>
-      <c r="K319" s="2" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M319" s="2" t="s">
-        <v>1773</v>
+      <c r="K319" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L319" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M319" s="4" t="s">
+        <v>1758</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="P319" s="2" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
@@ -17344,10 +17350,10 @@
         <v>468</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="I320" s="2">
         <v>25.0</v>
@@ -17355,17 +17361,20 @@
       <c r="J320" s="5">
         <v>37383.0</v>
       </c>
-      <c r="K320" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="M320" s="2" t="s">
-        <v>1779</v>
+      <c r="K320" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L320" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M320" s="4" t="s">
+        <v>1764</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
@@ -17376,13 +17385,13 @@
         <v>1312</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="I321" s="2">
         <v>44.0</v>
@@ -17390,17 +17399,20 @@
       <c r="J321" s="5">
         <v>36338.0</v>
       </c>
-      <c r="K321" s="2" t="s">
-        <v>1785</v>
-      </c>
-      <c r="M321" s="2" t="s">
-        <v>1786</v>
+      <c r="K321" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L321" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M321" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
@@ -17408,16 +17420,16 @@
         <v>264.0</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="I322" s="2">
         <v>60.0</v>
@@ -17425,17 +17437,20 @@
       <c r="J322" s="5">
         <v>25480.0</v>
       </c>
-      <c r="K322" s="2" t="s">
-        <v>1793</v>
-      </c>
-      <c r="M322" s="2" t="s">
-        <v>1794</v>
+      <c r="K322" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L322" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M322" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>1795</v>
+        <v>1778</v>
       </c>
       <c r="P322" s="2" t="s">
-        <v>1796</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
@@ -17443,16 +17458,16 @@
         <v>265.0</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>312</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>1798</v>
+        <v>1781</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>1799</v>
+        <v>1782</v>
       </c>
       <c r="I323" s="2">
         <v>30.0</v>
@@ -17460,17 +17475,20 @@
       <c r="J323" s="5">
         <v>27070.0</v>
       </c>
-      <c r="K323" s="2" t="s">
-        <v>1800</v>
-      </c>
-      <c r="M323" s="2" t="s">
-        <v>1801</v>
+      <c r="K323" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L323" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M323" s="4" t="s">
+        <v>1542</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
       <c r="P323" s="2" t="s">
-        <v>1803</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
@@ -17478,16 +17496,16 @@
         <v>266.0</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1804</v>
+        <v>1786</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>580</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>1805</v>
+        <v>1787</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>1806</v>
+        <v>1788</v>
       </c>
       <c r="I324" s="2">
         <v>21.0</v>
@@ -17495,17 +17513,20 @@
       <c r="J324" s="5">
         <v>29386.0</v>
       </c>
-      <c r="K324" s="2" t="s">
-        <v>1807</v>
-      </c>
-      <c r="M324" s="2" t="s">
-        <v>1808</v>
+      <c r="K324" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L324" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M324" s="4" t="s">
+        <v>1790</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="P324" s="2" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
@@ -17519,10 +17540,10 @@
         <v>497</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>1811</v>
+        <v>1793</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>1812</v>
+        <v>1794</v>
       </c>
       <c r="I325" s="2">
         <v>57.0</v>
@@ -17530,17 +17551,20 @@
       <c r="J325" s="5">
         <v>26652.0</v>
       </c>
-      <c r="K325" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="M325" s="2" t="s">
-        <v>1814</v>
+      <c r="K325" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L325" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M325" s="4" t="s">
+        <v>1702</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>1815</v>
+        <v>1796</v>
       </c>
       <c r="P325" s="2" t="s">
-        <v>1816</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
@@ -17551,13 +17575,13 @@
         <v>1450</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1817</v>
+        <v>1798</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>1818</v>
+        <v>1799</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>1819</v>
+        <v>1800</v>
       </c>
       <c r="I326" s="2">
         <v>32.0</v>
@@ -17566,16 +17590,19 @@
         <v>30483.0</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="M326" s="2" t="s">
-        <v>1821</v>
+        <v>1801</v>
+      </c>
+      <c r="L326" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M326" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>1822</v>
+        <v>1802</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>1823</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
@@ -17583,16 +17610,16 @@
         <v>269.0</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1824</v>
+        <v>1804</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>378</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>1825</v>
+        <v>1805</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>1826</v>
+        <v>1806</v>
       </c>
       <c r="I327" s="2">
         <v>58.0</v>
@@ -17601,16 +17628,19 @@
         <v>33594.0</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="M327" s="2" t="s">
-        <v>1828</v>
+        <v>1807</v>
+      </c>
+      <c r="L327" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M327" s="4" t="s">
+        <v>1808</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>1829</v>
+        <v>1809</v>
       </c>
       <c r="P327" s="2" t="s">
-        <v>1830</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -17618,16 +17648,16 @@
         <v>270.0</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1831</v>
+        <v>1811</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>459</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>1832</v>
+        <v>1812</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>1833</v>
+        <v>1813</v>
       </c>
       <c r="I328" s="2">
         <v>45.0</v>
@@ -17635,17 +17665,20 @@
       <c r="J328" s="5">
         <v>31031.0</v>
       </c>
-      <c r="K328" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="M328" s="2" t="s">
-        <v>1835</v>
+      <c r="K328" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L328" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M328" s="4" t="s">
+        <v>1815</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>1836</v>
+        <v>1816</v>
       </c>
       <c r="P328" s="2" t="s">
-        <v>1837</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
@@ -17653,16 +17686,16 @@
         <v>271.0</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1838</v>
+        <v>1818</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>504</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>1839</v>
+        <v>1819</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="I329" s="2">
         <v>29.0</v>
@@ -17671,16 +17704,19 @@
         <v>31432.0</v>
       </c>
       <c r="K329" s="4" t="s">
-        <v>1841</v>
+        <v>1821</v>
+      </c>
+      <c r="L329" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="M329" s="4" t="s">
-        <v>1842</v>
+        <v>1620</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>1843</v>
+        <v>1822</v>
       </c>
       <c r="P329" s="2" t="s">
-        <v>1844</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
@@ -17691,13 +17727,13 @@
         <v>871</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>1847</v>
+        <v>1826</v>
       </c>
       <c r="I330" s="2">
         <v>33.0</v>
@@ -17706,17 +17742,19 @@
         <v>38981.0</v>
       </c>
       <c r="K330" s="4" t="s">
-        <v>1848</v>
-      </c>
-      <c r="L330" s="4"/>
+        <v>1827</v>
+      </c>
+      <c r="L330" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M330" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>1849</v>
+        <v>1828</v>
       </c>
       <c r="P330" s="2" t="s">
-        <v>1850</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
@@ -17724,16 +17762,16 @@
         <v>273.0</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1851</v>
+        <v>1830</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1852</v>
+        <v>1831</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>1853</v>
+        <v>1832</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>1854</v>
+        <v>1833</v>
       </c>
       <c r="I331" s="2">
         <v>42.0</v>
@@ -17742,7 +17780,7 @@
         <v>34569.0</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>1855</v>
+        <v>1834</v>
       </c>
       <c r="L331" s="4" t="s">
         <v>28</v>
@@ -17751,10 +17789,10 @@
         <v>1259</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>1856</v>
+        <v>1835</v>
       </c>
       <c r="P331" s="2" t="s">
-        <v>1857</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
@@ -17762,16 +17800,16 @@
         <v>274.0</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>1858</v>
+        <v>1837</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1859</v>
+        <v>1838</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>1860</v>
+        <v>1839</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>1861</v>
+        <v>1840</v>
       </c>
       <c r="I332" s="2">
         <v>47.0</v>
@@ -17780,7 +17818,7 @@
         <v>23873.0</v>
       </c>
       <c r="K332" s="4" t="s">
-        <v>1862</v>
+        <v>1841</v>
       </c>
       <c r="L332" s="4" t="s">
         <v>28</v>
@@ -17789,10 +17827,10 @@
         <v>1323</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>1863</v>
+        <v>1842</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>1864</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
@@ -17800,16 +17838,16 @@
         <v>275.0</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1865</v>
+        <v>1844</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>1866</v>
+        <v>1845</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>1867</v>
+        <v>1846</v>
       </c>
       <c r="H333" s="2" t="s">
-        <v>1868</v>
+        <v>1847</v>
       </c>
       <c r="I333" s="2">
         <v>18.0</v>
@@ -17818,19 +17856,19 @@
         <v>31791.0</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>1869</v>
+        <v>1848</v>
       </c>
       <c r="L333" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M333" s="4" t="s">
-        <v>1870</v>
+        <v>1849</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>1871</v>
+        <v>1850</v>
       </c>
       <c r="P333" s="2" t="s">
-        <v>1872</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
@@ -17838,16 +17876,16 @@
         <v>276.0</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1873</v>
+        <v>1852</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1874</v>
+        <v>1853</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>1875</v>
+        <v>1854</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>1876</v>
+        <v>1855</v>
       </c>
       <c r="I334" s="2">
         <v>43.0</v>
@@ -17856,16 +17894,19 @@
         <v>33022.0</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>1877</v>
+        <v>1856</v>
+      </c>
+      <c r="L334" s="4" t="s">
+        <v>1857</v>
       </c>
       <c r="M334" s="4" t="s">
-        <v>1273</v>
+        <v>1428</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>1878</v>
+        <v>1858</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>1879</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
@@ -17873,16 +17914,16 @@
         <v>277.0</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1838</v>
+        <v>1818</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>832</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="I335" s="2">
         <v>55.0</v>
@@ -17891,19 +17932,19 @@
         <v>35792.0</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>1882</v>
+        <v>1862</v>
       </c>
       <c r="L335" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M335" s="4" t="s">
-        <v>1842</v>
+        <v>1620</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>1883</v>
+        <v>1863</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>1884</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
@@ -17914,13 +17955,13 @@
         <v>1112</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1885</v>
+        <v>1865</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>1886</v>
+        <v>1866</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="I336" s="2">
         <v>53.0</v>
@@ -17929,7 +17970,7 @@
         <v>32310.0</v>
       </c>
       <c r="K336" s="4" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="L336" s="4" t="s">
         <v>28</v>
@@ -17938,10 +17979,10 @@
         <v>1406</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>1889</v>
+        <v>1869</v>
       </c>
       <c r="P336" s="2" t="s">
-        <v>1890</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
@@ -17949,16 +17990,16 @@
         <v>279.0</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>1891</v>
+        <v>1871</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1892</v>
+        <v>1872</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>1894</v>
+        <v>1874</v>
       </c>
       <c r="I337" s="2">
         <v>49.0</v>
@@ -17967,19 +18008,19 @@
         <v>38707.0</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>1895</v>
+        <v>1875</v>
       </c>
       <c r="L337" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M337" s="4" t="s">
-        <v>1896</v>
+        <v>1876</v>
       </c>
       <c r="N337" s="2" t="s">
-        <v>1897</v>
+        <v>1877</v>
       </c>
       <c r="P337" s="2" t="s">
-        <v>1898</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
@@ -17990,13 +18031,13 @@
         <v>156</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="I338" s="2">
         <v>26.0</v>
@@ -18005,19 +18046,19 @@
         <v>24318.0</v>
       </c>
       <c r="K338" s="4" t="s">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="L338" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M338" s="4" t="s">
-        <v>1902</v>
+        <v>1882</v>
       </c>
       <c r="N338" s="2" t="s">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="P338" s="2" t="s">
-        <v>1904</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
@@ -18031,10 +18072,10 @@
         <v>480</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>1905</v>
+        <v>1885</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>1906</v>
+        <v>1886</v>
       </c>
       <c r="I339" s="2">
         <v>58.0</v>
@@ -18043,19 +18084,19 @@
         <v>27999.0</v>
       </c>
       <c r="K339" s="4" t="s">
-        <v>1907</v>
+        <v>1887</v>
       </c>
       <c r="L339" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M339" s="4" t="s">
-        <v>1842</v>
+        <v>1620</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>1909</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
@@ -18066,13 +18107,13 @@
         <v>1318</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>1911</v>
+        <v>1891</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>1912</v>
+        <v>1892</v>
       </c>
       <c r="I340" s="2">
         <v>26.0</v>
@@ -18081,19 +18122,19 @@
         <v>28391.0</v>
       </c>
       <c r="K340" s="4" t="s">
-        <v>1913</v>
+        <v>1893</v>
       </c>
       <c r="L340" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M340" s="4" t="s">
-        <v>1914</v>
+        <v>1542</v>
       </c>
       <c r="N340" s="2" t="s">
-        <v>1915</v>
+        <v>1894</v>
       </c>
       <c r="P340" s="2" t="s">
-        <v>1916</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
@@ -18101,16 +18142,16 @@
         <v>283.0</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1917</v>
+        <v>1896</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>485</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>1919</v>
+        <v>1898</v>
       </c>
       <c r="I341" s="2">
         <v>23.0</v>
@@ -18119,19 +18160,19 @@
         <v>27135.0</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>1920</v>
+        <v>1899</v>
       </c>
       <c r="L341" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M341" s="4" t="s">
-        <v>1914</v>
+        <v>1542</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>1921</v>
+        <v>1900</v>
       </c>
       <c r="P341" s="2" t="s">
-        <v>1922</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
@@ -18145,10 +18186,10 @@
         <v>485</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>1923</v>
+        <v>1902</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>1924</v>
+        <v>1903</v>
       </c>
       <c r="I342" s="2">
         <v>20.0</v>
@@ -18156,18 +18197,20 @@
       <c r="J342" s="5">
         <v>26402.0</v>
       </c>
-      <c r="K342" s="2" t="s">
-        <v>1925</v>
-      </c>
-      <c r="L342" s="4"/>
+      <c r="K342" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L342" s="4" t="s">
+        <v>1857</v>
+      </c>
       <c r="M342" s="4" t="s">
         <v>1303</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>1926</v>
+        <v>1905</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>1927</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
@@ -18175,16 +18218,16 @@
         <v>285.0</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1928</v>
+        <v>1907</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>638</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>1929</v>
+        <v>1908</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>1930</v>
+        <v>1909</v>
       </c>
       <c r="I343" s="2">
         <v>29.0</v>
@@ -18193,19 +18236,19 @@
         <v>34152.0</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>1931</v>
+        <v>1910</v>
       </c>
       <c r="L343" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M343" s="4" t="s">
-        <v>1932</v>
+        <v>1911</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>1933</v>
+        <v>1912</v>
       </c>
       <c r="P343" s="2" t="s">
-        <v>1934</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
@@ -18219,10 +18262,10 @@
         <v>1335</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>1935</v>
+        <v>1914</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>1936</v>
+        <v>1915</v>
       </c>
       <c r="I344" s="2">
         <v>30.0</v>
@@ -18230,17 +18273,20 @@
       <c r="J344" s="5">
         <v>24151.0</v>
       </c>
-      <c r="K344" s="2" t="s">
-        <v>1937</v>
+      <c r="K344" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L344" s="4" t="s">
+        <v>1857</v>
       </c>
       <c r="M344" s="4" t="s">
-        <v>1938</v>
+        <v>1702</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>1939</v>
+        <v>1917</v>
       </c>
       <c r="P344" s="2" t="s">
-        <v>1940</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
@@ -18251,13 +18297,13 @@
         <v>63</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1941</v>
+        <v>1919</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>1942</v>
+        <v>1920</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>1943</v>
+        <v>1921</v>
       </c>
       <c r="I345" s="2">
         <v>46.0</v>
@@ -18266,19 +18312,19 @@
         <v>35590.0</v>
       </c>
       <c r="K345" s="4" t="s">
-        <v>1944</v>
+        <v>1922</v>
       </c>
       <c r="L345" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M345" s="4" t="s">
-        <v>1945</v>
+        <v>1476</v>
       </c>
       <c r="N345" s="2" t="s">
-        <v>1946</v>
+        <v>1923</v>
       </c>
       <c r="P345" s="2" t="s">
-        <v>1947</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
@@ -18286,16 +18332,16 @@
         <v>288.0</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1948</v>
+        <v>1925</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>1277</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>1949</v>
+        <v>1926</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>1950</v>
+        <v>1927</v>
       </c>
       <c r="I346" s="2">
         <v>42.0</v>
@@ -18304,19 +18350,19 @@
         <v>28782.0</v>
       </c>
       <c r="K346" s="4" t="s">
-        <v>1951</v>
+        <v>1928</v>
       </c>
       <c r="L346" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M346" s="4" t="s">
-        <v>1914</v>
+        <v>1542</v>
       </c>
       <c r="N346" s="2" t="s">
-        <v>1952</v>
+        <v>1929</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>1953</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
@@ -18324,16 +18370,16 @@
         <v>289.0</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1954</v>
+        <v>1931</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>1955</v>
+        <v>1932</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>1956</v>
+        <v>1933</v>
       </c>
       <c r="I347" s="2">
         <v>48.0</v>
@@ -18342,19 +18388,19 @@
         <v>25974.0</v>
       </c>
       <c r="K347" s="4" t="s">
-        <v>1957</v>
+        <v>1934</v>
       </c>
       <c r="L347" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M347" s="4" t="s">
-        <v>1958</v>
+        <v>1455</v>
       </c>
       <c r="N347" s="2" t="s">
-        <v>1959</v>
+        <v>1935</v>
       </c>
       <c r="P347" s="2" t="s">
-        <v>1960</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
@@ -18362,16 +18408,16 @@
         <v>290.0</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1892</v>
+        <v>1872</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>1961</v>
+        <v>1937</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>1962</v>
+        <v>1938</v>
       </c>
       <c r="I348" s="2">
         <v>29.0</v>
@@ -18380,19 +18426,19 @@
         <v>37106.0</v>
       </c>
       <c r="K348" s="4" t="s">
-        <v>1963</v>
+        <v>1939</v>
       </c>
       <c r="L348" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M348" s="4" t="s">
-        <v>1964</v>
+        <v>1940</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>1965</v>
+        <v>1941</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>1966</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
@@ -18400,16 +18446,16 @@
         <v>291.0</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1967</v>
+        <v>1943</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1968</v>
+        <v>1944</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>1969</v>
+        <v>1945</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>1970</v>
+        <v>1946</v>
       </c>
       <c r="I349" s="2">
         <v>40.0</v>
@@ -18418,19 +18464,19 @@
         <v>33546.0</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>1971</v>
+        <v>1947</v>
       </c>
       <c r="L349" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M349" s="4" t="s">
-        <v>1972</v>
+        <v>1948</v>
       </c>
       <c r="N349" s="2" t="s">
-        <v>1973</v>
+        <v>1949</v>
       </c>
       <c r="P349" s="2" t="s">
-        <v>1974</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
@@ -18438,16 +18484,16 @@
         <v>292.0</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1975</v>
+        <v>1951</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1976</v>
+        <v>1952</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>1977</v>
+        <v>1953</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>1978</v>
+        <v>1954</v>
       </c>
       <c r="I350" s="2">
         <v>20.0</v>
@@ -18456,19 +18502,19 @@
         <v>25267.0</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>1979</v>
+        <v>1955</v>
       </c>
       <c r="L350" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M350" s="4" t="s">
-        <v>1980</v>
+        <v>1956</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>1981</v>
+        <v>1957</v>
       </c>
       <c r="P350" s="2" t="s">
-        <v>1982</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
@@ -18476,16 +18522,16 @@
         <v>293.0</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1983</v>
+        <v>1959</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>1984</v>
+        <v>1960</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>1985</v>
+        <v>1961</v>
       </c>
       <c r="I351" s="2">
         <v>51.0</v>
@@ -18494,19 +18540,19 @@
         <v>30268.0</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>1986</v>
+        <v>1962</v>
       </c>
       <c r="L351" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M351" s="4" t="s">
-        <v>1987</v>
+        <v>1963</v>
       </c>
       <c r="N351" s="2" t="s">
-        <v>1988</v>
+        <v>1964</v>
       </c>
       <c r="P351" s="2" t="s">
-        <v>1989</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
@@ -18514,16 +18560,16 @@
         <v>294.0</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>1991</v>
+        <v>1967</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>1992</v>
+        <v>1968</v>
       </c>
       <c r="I352" s="2">
         <v>32.0</v>
@@ -18532,19 +18578,19 @@
         <v>25146.0</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>1993</v>
+        <v>1969</v>
       </c>
       <c r="L352" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M352" s="4" t="s">
-        <v>1914</v>
+        <v>1542</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>1994</v>
+        <v>1970</v>
       </c>
       <c r="P352" s="2" t="s">
-        <v>1995</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
@@ -18552,16 +18598,16 @@
         <v>295.0</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1996</v>
+        <v>1972</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>1998</v>
+        <v>1974</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>1999</v>
+        <v>1975</v>
       </c>
       <c r="I353" s="2">
         <v>19.0</v>
@@ -18570,7 +18616,7 @@
         <v>29078.0</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="L353" s="4" t="s">
         <v>28</v>
@@ -18579,10 +18625,10 @@
         <v>1413</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>2001</v>
+        <v>1977</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>2002</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
@@ -18590,16 +18636,16 @@
         <v>296.0</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>2003</v>
+        <v>1979</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>2005</v>
+        <v>1981</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="I354" s="2">
         <v>60.0</v>
@@ -18608,19 +18654,19 @@
         <v>37549.0</v>
       </c>
       <c r="K354" s="4" t="s">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="L354" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M354" s="4" t="s">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="N354" s="2" t="s">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>2010</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
@@ -18628,16 +18674,16 @@
         <v>297.0</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>504</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="I355" s="2">
         <v>53.0</v>
@@ -18646,19 +18692,19 @@
         <v>38608.0</v>
       </c>
       <c r="K355" s="4" t="s">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="L355" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M355" s="4" t="s">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="N355" s="2" t="s">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="P355" s="2" t="s">
-        <v>2017</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
@@ -18669,13 +18715,13 @@
         <v>729</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>2019</v>
+        <v>1995</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="I356" s="2">
         <v>46.0</v>
@@ -18684,7 +18730,7 @@
         <v>26439.0</v>
       </c>
       <c r="K356" s="4" t="s">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="L356" s="4" t="s">
         <v>28</v>
@@ -18693,10 +18739,10 @@
         <v>1295</v>
       </c>
       <c r="N356" s="2" t="s">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>2023</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
@@ -18704,16 +18750,16 @@
         <v>299.0</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>2025</v>
+        <v>2001</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>2026</v>
+        <v>2002</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>2027</v>
+        <v>2003</v>
       </c>
       <c r="I357" s="2">
         <v>29.0</v>
@@ -18722,7 +18768,7 @@
         <v>31776.0</v>
       </c>
       <c r="K357" s="4" t="s">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="L357" s="4" t="s">
         <v>28</v>
@@ -18731,10 +18777,10 @@
         <v>1259</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>2029</v>
+        <v>2005</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>2030</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
@@ -18742,16 +18788,16 @@
         <v>300.0</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>2031</v>
+        <v>2007</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>933</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>2032</v>
+        <v>2008</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>2033</v>
+        <v>2009</v>
       </c>
       <c r="I358" s="2">
         <v>49.0</v>
@@ -18760,7 +18806,7 @@
         <v>37577.0</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>2034</v>
+        <v>2010</v>
       </c>
       <c r="L358" s="4" t="s">
         <v>28</v>
@@ -18769,10 +18815,10 @@
         <v>1331</v>
       </c>
       <c r="N358" s="2" t="s">
-        <v>2035</v>
+        <v>2011</v>
       </c>
       <c r="P358" s="2" t="s">
-        <v>2036</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1"/>
